--- a/data/source/current_employment.xlsx
+++ b/data/source/current_employment.xlsx
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D3:D11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4264,87 +4264,87 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Employment_Table!C52</f>
-        <v>6.2</v>
-      </c>
-      <c r="C3" s="23">
-        <f>Employment_Table!D52</f>
-        <v>-0.89999999999999947</v>
-      </c>
-      <c r="D3" s="23">
-        <f>Employment_Table!E52</f>
-        <v>0.18267223382044673</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Employment_Table!F52</f>
-        <v>6.9645203679369327</v>
+      <c r="A3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="26">
+        <f>Employment_Table!C41</f>
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="27">
+        <f>Employment_Table!D41</f>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="D3" s="27">
+        <f>Employment_Table!E41</f>
+        <v>3.3604427877555576</v>
+      </c>
+      <c r="E3" s="23">
+        <f>Employment_Table!F41</f>
+        <v>2.8103044496487151</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B4" s="21">
-        <f>Employment_Table!C38</f>
-        <v>3.2</v>
-      </c>
-      <c r="C4" s="23">
-        <f>Employment_Table!D38</f>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="D4" s="23">
-        <f>Employment_Table!E38</f>
-        <v>-3.4293251264013946</v>
+        <f>Employment_Table!C48</f>
+        <v>3.8</v>
+      </c>
+      <c r="C4" s="27">
+        <f>Employment_Table!D48</f>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="D4" s="27">
+        <f>Employment_Table!E48</f>
+        <v>3.2810791104630033</v>
       </c>
       <c r="E4" s="23">
-        <f>Employment_Table!F38</f>
-        <v>3.5980148883374863</v>
+        <f>Employment_Table!F48</f>
+        <v>2.1422450728363351</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="26">
-        <f>Employment_Table!C41</f>
-        <v>4.5</v>
-      </c>
-      <c r="C5" s="27">
-        <f>Employment_Table!D41</f>
-        <v>-1.2999999999999998</v>
-      </c>
-      <c r="D5" s="27">
-        <f>Employment_Table!E41</f>
-        <v>3.3604427877555576</v>
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21">
+        <f>Employment_Table!C16</f>
+        <v>3.7</v>
+      </c>
+      <c r="C5" s="23">
+        <f>Employment_Table!D16</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D5" s="23">
+        <f>Employment_Table!E16</f>
+        <v>3.2060841037876431</v>
       </c>
       <c r="E5" s="23">
-        <f>Employment_Table!F41</f>
-        <v>2.8103044496487151</v>
+        <f>Employment_Table!F16</f>
+        <v>1.7587939698492372</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26">
-        <f>Employment_Table!C8</f>
-        <v>5.2</v>
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="21">
+        <f>Employment_Table!C51</f>
+        <v>5.8</v>
       </c>
       <c r="C6" s="27">
-        <f>Employment_Table!D8</f>
-        <v>-1.2000000000000002</v>
+        <f>Employment_Table!D51</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D6" s="27">
-        <f>Employment_Table!E8</f>
-        <v>2.7575970138036476</v>
+        <f>Employment_Table!E51</f>
+        <v>3.2047817378310306</v>
       </c>
       <c r="E6" s="23">
-        <f>Employment_Table!F8</f>
-        <v>2.3902099619367068</v>
+        <f>Employment_Table!F51</f>
+        <v>2.0160570918822396</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="2" t="s">
@@ -4352,24 +4352,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21">
-        <f>Employment_Table!C9</f>
-        <v>3.4</v>
-      </c>
-      <c r="C7" s="23">
-        <f>Employment_Table!D9</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D7" s="23">
-        <f>Employment_Table!E9</f>
-        <v>2.4493343341366103</v>
-      </c>
-      <c r="E7" s="23">
-        <f>Employment_Table!F9</f>
-        <v>2.3099133782483072</v>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <f>Employment_Table!C13</f>
+        <v>4.7</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Employment_Table!D13</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Employment_Table!E13</f>
+        <v>3.150788627874368</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Employment_Table!F13</f>
+        <v>1.3806523350629929</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20" t="s">
@@ -4377,48 +4377,48 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="21">
-        <f>Employment_Table!C48</f>
-        <v>3.8</v>
-      </c>
-      <c r="C8" s="27">
-        <f>Employment_Table!D48</f>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="D8" s="27">
-        <f>Employment_Table!E48</f>
-        <v>3.2810791104630033</v>
-      </c>
-      <c r="E8" s="23">
-        <f>Employment_Table!F48</f>
-        <v>2.1422450728363351</v>
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <f>Employment_Table!C14</f>
+        <v>5.3</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Employment_Table!D14</f>
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Employment_Table!E14</f>
+        <v>2.9345957276431411</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Employment_Table!F14</f>
+        <v>1.0181496237273047</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="21">
-        <f>Employment_Table!C51</f>
-        <v>5.8</v>
-      </c>
-      <c r="C9" s="27">
-        <f>Employment_Table!D51</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D9" s="27">
-        <f>Employment_Table!E51</f>
-        <v>3.2047817378310306</v>
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <f>Employment_Table!C6</f>
+        <v>5.6</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Employment_Table!D6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D9" s="23">
+        <f>Employment_Table!E6</f>
+        <v>2.8929567776206699</v>
       </c>
       <c r="E9" s="23">
-        <f>Employment_Table!F51</f>
-        <v>2.0160570918822396</v>
+        <f>Employment_Table!F6</f>
+        <v>9.8960910440393235E-2</v>
       </c>
       <c r="H9" s="8"/>
       <c r="L9" s="2" t="s">
@@ -4426,24 +4426,24 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <f>Employment_Table!C12</f>
-        <v>6.1</v>
-      </c>
-      <c r="C10" s="1">
-        <f>Employment_Table!D12</f>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="D10" s="1">
-        <f>Employment_Table!E12</f>
-        <v>2.3076923076923217</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Employment_Table!F12</f>
-        <v>1.9739605207895972</v>
+      <c r="A10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26">
+        <f>Employment_Table!C8</f>
+        <v>5.2</v>
+      </c>
+      <c r="C10" s="27">
+        <f>Employment_Table!D8</f>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="D10" s="27">
+        <f>Employment_Table!E8</f>
+        <v>2.7575970138036476</v>
+      </c>
+      <c r="E10" s="23">
+        <f>Employment_Table!F8</f>
+        <v>2.3902099619367068</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -4454,23 +4454,23 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B11" s="21">
-        <f>Employment_Table!C47</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Employment_Table!D47</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <f>Employment_Table!E47</f>
-        <v>1.4556978113693608</v>
-      </c>
-      <c r="E11" s="23">
-        <f>Employment_Table!F47</f>
-        <v>1.9603607495814579</v>
+        <f>Employment_Table!C11</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="23">
+        <f>Employment_Table!D11</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Employment_Table!E11</f>
+        <v>2.4591996422982376</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Employment_Table!F11</f>
+        <v>0.30581039755350758</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="20"/>
@@ -4480,24 +4480,24 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="7">
-        <f>Employment_Table!C49</f>
-        <v>3.1</v>
-      </c>
-      <c r="C12" s="1">
-        <f>Employment_Table!D49</f>
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="D12" s="1">
-        <f>Employment_Table!E49</f>
-        <v>1.4102564102564052</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Employment_Table!F49</f>
-        <v>1.795332136445249</v>
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21">
+        <f>Employment_Table!C9</f>
+        <v>3.4</v>
+      </c>
+      <c r="C12" s="23">
+        <f>Employment_Table!D9</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D12" s="23">
+        <f>Employment_Table!E9</f>
+        <v>2.4493343341366103</v>
+      </c>
+      <c r="E12" s="23">
+        <f>Employment_Table!F9</f>
+        <v>2.3099133782483072</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -4508,24 +4508,24 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <f>Employment_Table!C16</f>
-        <v>3.7</v>
-      </c>
-      <c r="C13" s="23">
-        <f>Employment_Table!D16</f>
+      <c r="A13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="26">
+        <f>Employment_Table!C44</f>
+        <v>5.6</v>
+      </c>
+      <c r="C13" s="27">
+        <f>Employment_Table!D44</f>
         <v>-0.5</v>
       </c>
-      <c r="D13" s="23">
-        <f>Employment_Table!E16</f>
-        <v>3.2060841037876431</v>
+      <c r="D13" s="27">
+        <f>Employment_Table!E44</f>
+        <v>2.3692646764175596</v>
       </c>
       <c r="E13" s="23">
-        <f>Employment_Table!F16</f>
-        <v>1.7587939698492372</v>
+        <f>Employment_Table!F44</f>
+        <v>0.94496942745969648</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="8"/>
@@ -4537,23 +4537,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7">
-        <f>Employment_Table!C13</f>
-        <v>4.7</v>
+        <f>Employment_Table!C12</f>
+        <v>6.1</v>
       </c>
       <c r="C14" s="1">
-        <f>Employment_Table!D13</f>
-        <v>-0.70000000000000018</v>
+        <f>Employment_Table!D12</f>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="D14" s="1">
-        <f>Employment_Table!E13</f>
-        <v>3.150788627874368</v>
+        <f>Employment_Table!E12</f>
+        <v>2.3076923076923217</v>
       </c>
       <c r="E14" s="1">
-        <f>Employment_Table!F13</f>
-        <v>1.3806523350629929</v>
+        <f>Employment_Table!F12</f>
+        <v>1.9739605207895972</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="8"/>
@@ -4562,24 +4562,24 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="26">
-        <f>Employment_Table!C32</f>
-        <v>6.1</v>
-      </c>
-      <c r="C15" s="27">
-        <f>Employment_Table!D32</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D15" s="27">
-        <f>Employment_Table!E32</f>
-        <v>2.0025530556885274</v>
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <f>Employment_Table!C15</f>
+        <v>3.2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Employment_Table!D15</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Employment_Table!E15</f>
+        <v>2.1588402143082108</v>
       </c>
       <c r="E15" s="1">
-        <f>Employment_Table!F32</f>
-        <v>1.2944983818770295</v>
+        <f>Employment_Table!F15</f>
+        <v>0.15898251192369983</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="20"/>
@@ -4588,24 +4588,24 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="21">
-        <f>Employment_Table!C28</f>
-        <v>5.8</v>
-      </c>
-      <c r="C16" s="23">
-        <f>Employment_Table!D28</f>
-        <v>-0.60000000000000053</v>
-      </c>
-      <c r="D16" s="23">
-        <f>Employment_Table!E28</f>
-        <v>0.83892617449663476</v>
-      </c>
-      <c r="E16" s="23">
-        <f>Employment_Table!F28</f>
-        <v>1.1904761904761862</v>
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7">
+        <f>Employment_Table!C46</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Employment_Table!D46</f>
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Employment_Table!E46</f>
+        <v>2.116126342124458</v>
+      </c>
+      <c r="E16" s="1">
+        <f>Employment_Table!F46</f>
+        <v>-0.30842230130486703</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="8"/>
@@ -4614,24 +4614,24 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="21">
-        <f>Employment_Table!C25</f>
-        <v>4.2</v>
-      </c>
-      <c r="C17" s="23">
-        <f>Employment_Table!D25</f>
+      <c r="A17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="26">
+        <f>Employment_Table!C32</f>
+        <v>6.1</v>
+      </c>
+      <c r="C17" s="27">
+        <f>Employment_Table!D32</f>
         <v>-0.70000000000000018</v>
       </c>
-      <c r="D17" s="23">
-        <f>Employment_Table!E25</f>
-        <v>1.5289906943450227</v>
-      </c>
-      <c r="E17" s="23">
-        <f>Employment_Table!F25</f>
-        <v>1.1555555555555541</v>
+      <c r="D17" s="27">
+        <f>Employment_Table!E32</f>
+        <v>2.0025530556885274</v>
+      </c>
+      <c r="E17" s="1">
+        <f>Employment_Table!F32</f>
+        <v>1.2944983818770295</v>
       </c>
       <c r="I17" s="25"/>
       <c r="K17" s="7"/>
@@ -4640,372 +4640,372 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B18" s="21">
-        <f>Employment_Table!C54</f>
-        <v>5.6</v>
+        <f>Employment_Table!C26</f>
+        <v>4.7</v>
       </c>
       <c r="C18" s="23">
-        <f>Employment_Table!D54</f>
-        <v>1.3999999999999995</v>
+        <f>Employment_Table!D26</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D18" s="1">
-        <f>Employment_Table!E54</f>
-        <v>-3.0261348005502064</v>
+        <f>Employment_Table!E26</f>
+        <v>1.885100861153699</v>
       </c>
       <c r="E18" s="1">
-        <f>Employment_Table!F54</f>
-        <v>1.1235955056179803</v>
+        <f>Employment_Table!F26</f>
+        <v>1.0101010101010166</v>
       </c>
       <c r="K18" s="8"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B19" s="7">
-        <f>Employment_Table!C14</f>
-        <v>5.3</v>
+        <f>Employment_Table!C37</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C19" s="1">
-        <f>Employment_Table!D14</f>
-        <v>-0.60000000000000053</v>
+        <f>Employment_Table!D37</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D19" s="1">
-        <f>Employment_Table!E14</f>
-        <v>2.9345957276431411</v>
+        <f>Employment_Table!E37</f>
+        <v>1.8465103083033618</v>
       </c>
       <c r="E19" s="1">
-        <f>Employment_Table!F14</f>
-        <v>1.0181496237273047</v>
+        <f>Employment_Table!F37</f>
+        <v>0.33310201249132643</v>
       </c>
       <c r="K19" s="8"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="21">
-        <f>Employment_Table!C26</f>
-        <v>4.7</v>
-      </c>
-      <c r="C20" s="23">
-        <f>Employment_Table!D26</f>
-        <v>-0.79999999999999982</v>
+      <c r="A20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7">
+        <f>Employment_Table!C7</f>
+        <v>3.8</v>
+      </c>
+      <c r="C20" s="1">
+        <f>Employment_Table!D7</f>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="D20" s="1">
-        <f>Employment_Table!E26</f>
-        <v>1.885100861153699</v>
+        <f>Employment_Table!E7</f>
+        <v>1.8353957312515767</v>
       </c>
       <c r="E20" s="1">
-        <f>Employment_Table!F26</f>
-        <v>1.0101010101010166</v>
+        <f>Employment_Table!F7</f>
+        <v>0.28261893546868144</v>
       </c>
       <c r="K20" s="7"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21">
-        <f>Employment_Table!C5</f>
-        <v>6.7</v>
-      </c>
-      <c r="C21" s="23">
-        <f>Employment_Table!D5</f>
-        <v>0.29999999999999982</v>
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <f>Employment_Table!C24</f>
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Employment_Table!D24</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D21" s="23">
-        <f>Employment_Table!E5</f>
-        <v>-0.55653192735792834</v>
+        <f>Employment_Table!E24</f>
+        <v>1.8278922822325905</v>
       </c>
       <c r="E21" s="23">
-        <f>Employment_Table!F5</f>
-        <v>0.96618357487923134</v>
+        <f>Employment_Table!F24</f>
+        <v>0.13905442987685035</v>
       </c>
       <c r="K21" s="20"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="26">
-        <f>Employment_Table!C44</f>
-        <v>5.6</v>
-      </c>
-      <c r="C22" s="27">
-        <f>Employment_Table!D44</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D22" s="27">
-        <f>Employment_Table!E44</f>
-        <v>2.3692646764175596</v>
-      </c>
-      <c r="E22" s="23">
-        <f>Employment_Table!F44</f>
-        <v>0.94496942745969648</v>
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7">
+        <f>Employment_Table!C50</f>
+        <v>3.8</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Employment_Table!D50</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D22" s="1">
+        <f>Employment_Table!E50</f>
+        <v>1.7707654192202327</v>
+      </c>
+      <c r="E22" s="1">
+        <f>Employment_Table!F50</f>
+        <v>0.23862998315553607</v>
       </c>
       <c r="K22" s="25"/>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7">
-        <f>Employment_Table!C35</f>
-        <v>6.2</v>
-      </c>
-      <c r="C23" s="1">
-        <f>Employment_Table!D35</f>
+      <c r="A23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="21">
+        <f>Employment_Table!C53</f>
+        <v>4.2</v>
+      </c>
+      <c r="C23" s="23">
+        <f>Employment_Table!D53</f>
         <v>-0.39999999999999947</v>
       </c>
       <c r="D23" s="1">
-        <f>Employment_Table!E35</f>
-        <v>0.49624788186879432</v>
+        <f>Employment_Table!E53</f>
+        <v>1.6541822721598098</v>
       </c>
       <c r="E23" s="1">
-        <f>Employment_Table!F35</f>
-        <v>0.89520800421274416</v>
+        <f>Employment_Table!F53</f>
+        <v>0.43999022243947916</v>
       </c>
       <c r="K23" s="8"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="21">
+        <f>Employment_Table!C31</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Employment_Table!D31</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D24" s="23">
+        <f>Employment_Table!E31</f>
+        <v>1.6452288363745238</v>
+      </c>
+      <c r="E24" s="23">
+        <f>Employment_Table!F31</f>
+        <v>0.70381231671554634</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="21">
+        <f>Employment_Table!C25</f>
+        <v>4.2</v>
+      </c>
+      <c r="C25" s="23">
+        <f>Employment_Table!D25</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D25" s="23">
+        <f>Employment_Table!E25</f>
+        <v>1.5289906943450227</v>
+      </c>
+      <c r="E25" s="23">
+        <f>Employment_Table!F25</f>
+        <v>1.1555555555555541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="21">
+        <f>Employment_Table!C47</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C26" s="1">
+        <f>Employment_Table!D47</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="23">
+        <f>Employment_Table!E47</f>
+        <v>1.4556978113693608</v>
+      </c>
+      <c r="E26" s="23">
+        <f>Employment_Table!F47</f>
+        <v>1.9603607495814579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="7">
+        <f>Employment_Table!C49</f>
+        <v>3.1</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Employment_Table!D49</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D27" s="1">
+        <f>Employment_Table!E49</f>
+        <v>1.4102564102564052</v>
+      </c>
+      <c r="E27" s="1">
+        <f>Employment_Table!F49</f>
+        <v>1.795332136445249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="21">
+        <f>Employment_Table!C45</f>
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="23">
+        <f>Employment_Table!D45</f>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D28" s="1">
+        <f>Employment_Table!E45</f>
+        <v>1.3311536665109758</v>
+      </c>
+      <c r="E28" s="1">
+        <f>Employment_Table!F45</f>
+        <v>0.12820512820512775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="21">
+        <f>Employment_Table!C39</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Employment_Table!D39</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="D29" s="1">
+        <f>Employment_Table!E39</f>
+        <v>1.3091083661072034</v>
+      </c>
+      <c r="E29" s="1">
+        <f>Employment_Table!F39</f>
+        <v>0.1171722431974942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="21">
+        <f>Employment_Table!C18</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Employment_Table!D18</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D30" s="1">
+        <f>Employment_Table!E18</f>
+        <v>1.2778181337911976</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Employment_Table!F18</f>
+        <v>9.3852651337411608E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="21">
+        <f>Employment_Table!C21</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C31" s="23">
+        <f>Employment_Table!D21</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D31" s="23">
+        <f>Employment_Table!E21</f>
+        <v>1.2278090783458984</v>
+      </c>
+      <c r="E31" s="1">
+        <f>Employment_Table!F21</f>
+        <v>-1.1915961116337304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21">
+        <f>Employment_Table!C34</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C32" s="23">
+        <f>Employment_Table!D34</f>
+        <v>-0.89999999999999947</v>
+      </c>
+      <c r="D32" s="23">
+        <f>Employment_Table!E34</f>
+        <v>1.194594460068199</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Employment_Table!F34</f>
+        <v>0.32446463335495945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B33" s="21">
         <f>Employment_Table!C19</f>
         <v>3.9</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C33" s="1">
         <f>Employment_Table!D19</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D33" s="23">
         <f>Employment_Table!E19</f>
         <v>1.1539201230848173</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E33" s="23">
         <f>Employment_Table!F19</f>
         <v>0.82482325216024499</v>
       </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="21">
-        <f>Employment_Table!C31</f>
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <f>Employment_Table!D31</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="D25" s="23">
-        <f>Employment_Table!E31</f>
-        <v>1.6452288363745238</v>
-      </c>
-      <c r="E25" s="23">
-        <f>Employment_Table!F31</f>
-        <v>0.70381231671554634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="21">
-        <f>Employment_Table!C36</f>
-        <v>4.7</v>
-      </c>
-      <c r="C26" s="1">
-        <f>Employment_Table!D36</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D26" s="1">
-        <f>Employment_Table!E36</f>
-        <v>0.97163013135399545</v>
-      </c>
-      <c r="E26" s="1">
-        <f>Employment_Table!F36</f>
-        <v>0.45948203842940405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="21">
-        <f>Employment_Table!C53</f>
-        <v>4.2</v>
-      </c>
-      <c r="C27" s="23">
-        <f>Employment_Table!D53</f>
-        <v>-0.39999999999999947</v>
-      </c>
-      <c r="D27" s="1">
-        <f>Employment_Table!E53</f>
-        <v>1.6541822721598098</v>
-      </c>
-      <c r="E27" s="1">
-        <f>Employment_Table!F53</f>
-        <v>0.43999022243947916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="21">
-        <f>Employment_Table!C40</f>
-        <v>4.7</v>
-      </c>
-      <c r="C28" s="1">
-        <f>Employment_Table!D40</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D28" s="1">
-        <f>Employment_Table!E40</f>
-        <v>-0.1679764832923536</v>
-      </c>
-      <c r="E28" s="1">
-        <f>Employment_Table!F40</f>
-        <v>0.39840637450199168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="7">
-        <f>Employment_Table!C37</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C29" s="1">
-        <f>Employment_Table!D37</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D29" s="1">
-        <f>Employment_Table!E37</f>
-        <v>1.8465103083033618</v>
-      </c>
-      <c r="E29" s="1">
-        <f>Employment_Table!F37</f>
-        <v>0.33310201249132643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="21">
-        <f>Employment_Table!C34</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Employment_Table!D34</f>
-        <v>-0.89999999999999947</v>
-      </c>
-      <c r="D30" s="23">
-        <f>Employment_Table!E34</f>
-        <v>1.194594460068199</v>
-      </c>
-      <c r="E30" s="1">
-        <f>Employment_Table!F34</f>
-        <v>0.32446463335495945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="21">
-        <f>Employment_Table!C11</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C31" s="23">
-        <f>Employment_Table!D11</f>
-        <v>-0.80000000000000071</v>
-      </c>
-      <c r="D31" s="1">
-        <f>Employment_Table!E11</f>
-        <v>2.4591996422982376</v>
-      </c>
-      <c r="E31" s="1">
-        <f>Employment_Table!F11</f>
-        <v>0.30581039755350758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="7">
-        <f>Employment_Table!C7</f>
-        <v>3.8</v>
-      </c>
-      <c r="C32" s="1">
-        <f>Employment_Table!D7</f>
-        <v>-1.6000000000000005</v>
-      </c>
-      <c r="D32" s="1">
-        <f>Employment_Table!E7</f>
-        <v>1.8353957312515767</v>
-      </c>
-      <c r="E32" s="1">
-        <f>Employment_Table!F7</f>
-        <v>0.28261893546868144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7">
-        <f>Employment_Table!C50</f>
-        <v>3.8</v>
-      </c>
-      <c r="C33" s="1">
-        <f>Employment_Table!D50</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D33" s="1">
-        <f>Employment_Table!E50</f>
-        <v>1.7707654192202327</v>
-      </c>
-      <c r="E33" s="1">
-        <f>Employment_Table!F50</f>
-        <v>0.23862998315553607</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B34" s="21">
-        <f>Employment_Table!C30</f>
-        <v>4.2</v>
-      </c>
-      <c r="C34" s="1">
-        <f>Employment_Table!D30</f>
-        <v>0.10000000000000053</v>
-      </c>
-      <c r="D34" s="1">
-        <f>Employment_Table!E30</f>
-        <v>0.60750705142114114</v>
+        <f>Employment_Table!C4</f>
+        <v>6.1</v>
+      </c>
+      <c r="C34" s="23">
+        <f>Employment_Table!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="23">
+        <f>Employment_Table!E4</f>
+        <v>1.0843311578190074</v>
       </c>
       <c r="E34" s="1">
-        <f>Employment_Table!F30</f>
-        <v>0.22148394241416902</v>
+        <f>Employment_Table!F4</f>
+        <v>-0.34409740603493777</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -5031,132 +5031,132 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="7">
-        <f>Employment_Table!C15</f>
-        <v>3.2</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="21">
+        <f>Employment_Table!C36</f>
+        <v>4.7</v>
       </c>
       <c r="C36" s="1">
-        <f>Employment_Table!D15</f>
-        <v>-0.5</v>
+        <f>Employment_Table!D36</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D36" s="1">
-        <f>Employment_Table!E15</f>
-        <v>2.1588402143082108</v>
+        <f>Employment_Table!E36</f>
+        <v>0.97163013135399545</v>
       </c>
       <c r="E36" s="1">
-        <f>Employment_Table!F15</f>
-        <v>0.15898251192369983</v>
+        <f>Employment_Table!F36</f>
+        <v>0.45948203842940405</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="7">
-        <f>Employment_Table!C24</f>
-        <v>4.5</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="21">
+        <f>Employment_Table!C29</f>
+        <v>4.3</v>
       </c>
       <c r="C37" s="1">
-        <f>Employment_Table!D24</f>
-        <v>-0.70000000000000018</v>
+        <f>Employment_Table!D29</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D37" s="23">
-        <f>Employment_Table!E24</f>
-        <v>1.8278922822325905</v>
-      </c>
-      <c r="E37" s="23">
-        <f>Employment_Table!F24</f>
-        <v>0.13905442987685035</v>
+        <f>Employment_Table!E29</f>
+        <v>0.86525688435716841</v>
+      </c>
+      <c r="E37" s="1">
+        <f>Employment_Table!F29</f>
+        <v>-1.2666973744818066</v>
       </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B38" s="21">
-        <f>Employment_Table!C45</f>
-        <v>2.5</v>
+        <f>Employment_Table!C28</f>
+        <v>5.8</v>
       </c>
       <c r="C38" s="23">
-        <f>Employment_Table!D45</f>
-        <v>-0.70000000000000018</v>
-      </c>
-      <c r="D38" s="1">
-        <f>Employment_Table!E45</f>
-        <v>1.3311536665109758</v>
-      </c>
-      <c r="E38" s="1">
-        <f>Employment_Table!F45</f>
-        <v>0.12820512820512775</v>
+        <f>Employment_Table!D28</f>
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="D38" s="23">
+        <f>Employment_Table!E28</f>
+        <v>0.83892617449663476</v>
+      </c>
+      <c r="E38" s="23">
+        <f>Employment_Table!F28</f>
+        <v>1.1904761904761862</v>
       </c>
       <c r="L38" s="20"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B39" s="21">
-        <f>Employment_Table!C39</f>
-        <v>5.0999999999999996</v>
+        <f>Employment_Table!C10</f>
+        <v>5.7</v>
       </c>
       <c r="C39" s="1">
-        <f>Employment_Table!D39</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="D39" s="1">
-        <f>Employment_Table!E39</f>
-        <v>1.3091083661072034</v>
+        <f>Employment_Table!D10</f>
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="D39" s="23">
+        <f>Employment_Table!E10</f>
+        <v>0.83024728228406897</v>
       </c>
       <c r="E39" s="1">
-        <f>Employment_Table!F39</f>
-        <v>0.1171722431974942</v>
+        <f>Employment_Table!F10</f>
+        <v>-0.33388981636058856</v>
       </c>
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7">
-        <f>Employment_Table!C6</f>
-        <v>5.6</v>
-      </c>
-      <c r="C40" s="1">
-        <f>Employment_Table!D6</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D40" s="23">
-        <f>Employment_Table!E6</f>
-        <v>2.8929567776206699</v>
-      </c>
-      <c r="E40" s="23">
-        <f>Employment_Table!F6</f>
-        <v>9.8960910440393235E-2</v>
+      <c r="A40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="21">
+        <f>Employment_Table!C17</f>
+        <v>6.4</v>
+      </c>
+      <c r="C40" s="23">
+        <f>Employment_Table!D17</f>
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="1">
+        <f>Employment_Table!E17</f>
+        <v>0.77873254564984062</v>
+      </c>
+      <c r="E40" s="1">
+        <f>Employment_Table!F17</f>
+        <v>-9.6606690013290031E-2</v>
       </c>
       <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="21">
-        <f>Employment_Table!C18</f>
-        <v>5</v>
+      <c r="A41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="7">
+        <f>Employment_Table!C33</f>
+        <v>2.7</v>
       </c>
       <c r="C41" s="1">
-        <f>Employment_Table!D18</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D41" s="1">
-        <f>Employment_Table!E18</f>
-        <v>1.2778181337911976</v>
+        <f>Employment_Table!D33</f>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="D41" s="23">
+        <f>Employment_Table!E33</f>
+        <v>0.68534876637222908</v>
       </c>
       <c r="E41" s="1">
-        <f>Employment_Table!F18</f>
-        <v>9.3852651337411608E-2</v>
+        <f>Employment_Table!F33</f>
+        <v>-2.7563395810363822</v>
       </c>
       <c r="L41" s="8"/>
     </row>
@@ -5185,243 +5185,243 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B43" s="21">
-        <f>Employment_Table!C17</f>
-        <v>6.4</v>
-      </c>
-      <c r="C43" s="23">
-        <f>Employment_Table!D17</f>
-        <v>0.5</v>
+        <f>Employment_Table!C30</f>
+        <v>4.2</v>
+      </c>
+      <c r="C43" s="1">
+        <f>Employment_Table!D30</f>
+        <v>0.10000000000000053</v>
       </c>
       <c r="D43" s="1">
-        <f>Employment_Table!E17</f>
-        <v>0.77873254564984062</v>
+        <f>Employment_Table!E30</f>
+        <v>0.60750705142114114</v>
       </c>
       <c r="E43" s="1">
-        <f>Employment_Table!F17</f>
-        <v>-9.6606690013290031E-2</v>
+        <f>Employment_Table!F30</f>
+        <v>0.22148394241416902</v>
       </c>
       <c r="H43" s="20"/>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B44" s="7">
-        <f>Employment_Table!C46</f>
-        <v>4.0999999999999996</v>
+        <f>Employment_Table!C35</f>
+        <v>6.2</v>
       </c>
       <c r="C44" s="1">
-        <f>Employment_Table!D46</f>
-        <v>-1.7000000000000002</v>
+        <f>Employment_Table!D35</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D44" s="1">
-        <f>Employment_Table!E46</f>
-        <v>2.116126342124458</v>
+        <f>Employment_Table!E35</f>
+        <v>0.49624788186879432</v>
       </c>
       <c r="E44" s="1">
-        <f>Employment_Table!F46</f>
-        <v>-0.30842230130486703</v>
+        <f>Employment_Table!F35</f>
+        <v>0.89520800421274416</v>
       </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="21">
-        <f>Employment_Table!C10</f>
-        <v>5.7</v>
-      </c>
-      <c r="C45" s="1">
-        <f>Employment_Table!D10</f>
-        <v>0.10000000000000053</v>
+        <v>19</v>
+      </c>
+      <c r="B45" s="22">
+        <f>Employment_Table!C23</f>
+        <v>3.5</v>
+      </c>
+      <c r="C45" s="32">
+        <f>Employment_Table!D23</f>
+        <v>-1</v>
       </c>
       <c r="D45" s="23">
-        <f>Employment_Table!E10</f>
-        <v>0.83024728228406897</v>
+        <f>Employment_Table!E23</f>
+        <v>0.26220911176662032</v>
       </c>
       <c r="E45" s="1">
-        <f>Employment_Table!F10</f>
-        <v>-0.33388981636058856</v>
+        <f>Employment_Table!F23</f>
+        <v>-0.80808080808080218</v>
       </c>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B46" s="21">
-        <f>Employment_Table!C4</f>
-        <v>6.1</v>
+        <f>Employment_Table!C43</f>
+        <v>5.4</v>
       </c>
       <c r="C46" s="23">
-        <f>Employment_Table!D4</f>
-        <v>0</v>
+        <f>Employment_Table!D43</f>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="D46" s="23">
-        <f>Employment_Table!E4</f>
-        <v>1.0843311578190074</v>
+        <f>Employment_Table!E43</f>
+        <v>0.22652388797363976</v>
       </c>
       <c r="E46" s="1">
-        <f>Employment_Table!F4</f>
-        <v>-0.34409740603493777</v>
+        <f>Employment_Table!F43</f>
+        <v>-0.82644628099173278</v>
       </c>
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="21">
+        <f>Employment_Table!C52</f>
+        <v>6.2</v>
+      </c>
+      <c r="C47" s="23">
+        <f>Employment_Table!D52</f>
+        <v>-0.89999999999999947</v>
+      </c>
+      <c r="D47" s="23">
+        <f>Employment_Table!E52</f>
+        <v>0.18267223382044673</v>
+      </c>
+      <c r="E47" s="1">
+        <f>Employment_Table!F52</f>
+        <v>6.9645203679369327</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B48" s="21">
         <f>Employment_Table!C20</f>
         <v>3.7</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C48" s="23">
         <f>Employment_Table!D20</f>
         <v>-0.5</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D48" s="23">
         <f>Employment_Table!E20</f>
         <v>-5.0046471723741437E-2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <f>Employment_Table!F20</f>
         <v>-0.4278490859587758</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="22">
-        <f>Employment_Table!C23</f>
-        <v>3.5</v>
-      </c>
-      <c r="C48" s="32">
-        <f>Employment_Table!D23</f>
-        <v>-1</v>
-      </c>
-      <c r="D48" s="23">
-        <f>Employment_Table!E23</f>
-        <v>0.26220911176662032</v>
-      </c>
-      <c r="E48" s="1">
-        <f>Employment_Table!F23</f>
-        <v>-0.80808080808080218</v>
-      </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49" s="21">
-        <f>Employment_Table!C43</f>
-        <v>5.4</v>
-      </c>
-      <c r="C49" s="23">
-        <f>Employment_Table!D43</f>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="D49" s="23">
-        <f>Employment_Table!E43</f>
-        <v>0.22652388797363976</v>
+        <f>Employment_Table!C40</f>
+        <v>4.7</v>
+      </c>
+      <c r="C49" s="1">
+        <f>Employment_Table!D40</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D49" s="1">
+        <f>Employment_Table!E40</f>
+        <v>-0.1679764832923536</v>
       </c>
       <c r="E49" s="1">
-        <f>Employment_Table!F43</f>
-        <v>-0.82644628099173278</v>
+        <f>Employment_Table!F40</f>
+        <v>0.39840637450199168</v>
       </c>
       <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="21">
+        <f>Employment_Table!C5</f>
+        <v>6.7</v>
+      </c>
+      <c r="C50" s="23">
+        <f>Employment_Table!D5</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D50" s="23">
+        <f>Employment_Table!E5</f>
+        <v>-0.55653192735792834</v>
+      </c>
+      <c r="E50" s="23">
+        <f>Employment_Table!F5</f>
+        <v>0.96618357487923134</v>
+      </c>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B51" s="21">
         <f>Employment_Table!C22</f>
         <v>6.3</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C51" s="23">
         <f>Employment_Table!D22</f>
         <v>0</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D51" s="23">
         <f>Employment_Table!E22</f>
         <v>-0.93289196509177552</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E51" s="23">
         <f>Employment_Table!F22</f>
         <v>-1.0384850335980356</v>
       </c>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="21">
-        <f>Employment_Table!C21</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C51" s="23">
-        <f>Employment_Table!D21</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="D51" s="23">
-        <f>Employment_Table!E21</f>
-        <v>1.2278090783458984</v>
-      </c>
-      <c r="E51" s="1">
-        <f>Employment_Table!F21</f>
-        <v>-1.1915961116337304</v>
-      </c>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>25</v>
+      <c r="A52" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="21">
-        <f>Employment_Table!C29</f>
-        <v>4.3</v>
-      </c>
-      <c r="C52" s="1">
-        <f>Employment_Table!D29</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="D52" s="23">
-        <f>Employment_Table!E29</f>
-        <v>0.86525688435716841</v>
+        <f>Employment_Table!C54</f>
+        <v>5.6</v>
+      </c>
+      <c r="C52" s="23">
+        <f>Employment_Table!D54</f>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="D52" s="1">
+        <f>Employment_Table!E54</f>
+        <v>-3.0261348005502064</v>
       </c>
       <c r="E52" s="1">
-        <f>Employment_Table!F29</f>
-        <v>-1.2666973744818066</v>
+        <f>Employment_Table!F54</f>
+        <v>1.1235955056179803</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="7">
-        <f>Employment_Table!C33</f>
-        <v>2.7</v>
-      </c>
-      <c r="C53" s="1">
-        <f>Employment_Table!D33</f>
-        <v>-0.79999999999999982</v>
+      <c r="A53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="21">
+        <f>Employment_Table!C38</f>
+        <v>3.2</v>
+      </c>
+      <c r="C53" s="23">
+        <f>Employment_Table!D38</f>
+        <v>0.40000000000000036</v>
       </c>
       <c r="D53" s="23">
-        <f>Employment_Table!E33</f>
-        <v>0.68534876637222908</v>
-      </c>
-      <c r="E53" s="1">
-        <f>Employment_Table!F33</f>
-        <v>-2.7563395810363822</v>
+        <f>Employment_Table!E38</f>
+        <v>-3.4293251264013946</v>
+      </c>
+      <c r="E53" s="23">
+        <f>Employment_Table!F38</f>
+        <v>3.5980148883374863</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -5440,7 +5440,7 @@
   </sheetData>
   <autoFilter ref="A2:E2">
     <sortState ref="A3:E53">
-      <sortCondition descending="1" ref="E2"/>
+      <sortCondition descending="1" ref="D2"/>
     </sortState>
   </autoFilter>
   <sortState ref="L6:L13">

--- a/data/source/current_employment.xlsx
+++ b/data/source/current_employment.xlsx
@@ -413,7 +413,7 @@
     <numFmt numFmtId="169" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="75" x14ac:knownFonts="1">
     <font>
@@ -2065,10 +2065,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="507">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -2894,14 +2894,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -4189,7 +4189,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4246,275 +4246,275 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B3" s="20">
-        <f>Employment_Table!C42</f>
-        <v>5.8</v>
-      </c>
-      <c r="C3" s="1">
-        <f>Employment_Table!D42</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <f>Employment_Table!E42</f>
-        <v>0.65506653019447025</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Employment_Table!F42</f>
-        <v>0.43896913055789799</v>
+        <f>Employment_Table!C51</f>
+        <v>5.4</v>
+      </c>
+      <c r="C3" s="23">
+        <f>Employment_Table!D51</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D3" s="23">
+        <f>Employment_Table!E51</f>
+        <v>3.4568601499968432</v>
+      </c>
+      <c r="E3" s="21">
+        <f>Employment_Table!F51</f>
+        <v>3.3753775093267047</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="20">
-        <f>Employment_Table!C40</f>
-        <v>5.2</v>
-      </c>
-      <c r="C4" s="21">
-        <f>Employment_Table!D40</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <f>Employment_Table!E40</f>
-        <v>-0.73727746808127659</v>
+      <c r="A4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28">
+        <f>Employment_Table!C41</f>
+        <v>5.3</v>
+      </c>
+      <c r="C4" s="23">
+        <f>Employment_Table!D41</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D4" s="23">
+        <f>Employment_Table!E41</f>
+        <v>3.3424321764804255</v>
       </c>
       <c r="E4" s="21">
-        <f>Employment_Table!F40</f>
-        <v>5.6737588652477911E-2</v>
+        <f>Employment_Table!F41</f>
+        <v>3.4733708236850847</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="20">
-        <f>Employment_Table!C54</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C5" s="21">
-        <f>Employment_Table!D54</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="D5" s="21">
-        <f>Employment_Table!E54</f>
-        <v>-3.5294117647058809</v>
-      </c>
-      <c r="E5" s="21">
-        <f>Employment_Table!F54</f>
-        <v>-0.83682008368202165</v>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29">
+        <f>Employment_Table!C13</f>
+        <v>4.8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Employment_Table!D13</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Employment_Table!E13</f>
+        <v>3.0960471312978299</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Employment_Table!F13</f>
+        <v>1.4914380408764583</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
+      <c r="A6" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="20">
-        <f>Employment_Table!C29</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C6" s="1">
-        <f>Employment_Table!D29</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="D6" s="21">
-        <f>Employment_Table!E29</f>
-        <v>1.8259434639116057</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Employment_Table!F29</f>
-        <v>1.1337343822304558</v>
+        <f>Employment_Table!C48</f>
+        <v>3.2</v>
+      </c>
+      <c r="C6" s="23">
+        <f>Employment_Table!D48</f>
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="D6" s="23">
+        <f>Employment_Table!E48</f>
+        <v>3.0056805925073649</v>
+      </c>
+      <c r="E6" s="21">
+        <f>Employment_Table!F48</f>
+        <v>0.85070182900892632</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B7" s="20">
-        <f>Employment_Table!C19</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Employment_Table!D19</f>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="D7" s="21">
-        <f>Employment_Table!E19</f>
-        <v>1.1494986908487048</v>
-      </c>
-      <c r="E7" s="21">
-        <f>Employment_Table!F19</f>
-        <v>-0.19554165037153348</v>
+        <f>Employment_Table!C45</f>
+        <v>2.8</v>
+      </c>
+      <c r="C7" s="21">
+        <f>Employment_Table!D45</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Employment_Table!E45</f>
+        <v>2.5204200700116752</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Employment_Table!F45</f>
+        <v>1.9230769230769162</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" s="20">
-        <f>Employment_Table!C20</f>
-        <v>4.4000000000000004</v>
+        <f>Employment_Table!C9</f>
+        <v>3.5</v>
       </c>
       <c r="C8" s="21">
-        <f>Employment_Table!D20</f>
-        <v>0.40000000000000036</v>
+        <f>Employment_Table!D9</f>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="D8" s="21">
-        <f>Employment_Table!E20</f>
-        <v>-0.37803138373750933</v>
-      </c>
-      <c r="E8" s="1">
-        <f>Employment_Table!F20</f>
-        <v>0.15618898867628683</v>
+        <f>Employment_Table!E9</f>
+        <v>2.5012681937019776</v>
+      </c>
+      <c r="E8" s="21">
+        <f>Employment_Table!F9</f>
+        <v>1.5007146260124005</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Employment_Table!C27</f>
-        <v>4</v>
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="29">
+        <f>Employment_Table!C46</f>
+        <v>4.8</v>
       </c>
       <c r="C9" s="1">
-        <f>Employment_Table!D27</f>
-        <v>0.39999999999999991</v>
+        <f>Employment_Table!D46</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D9" s="1">
-        <f>Employment_Table!E27</f>
-        <v>1.1219853198182417</v>
+        <f>Employment_Table!E46</f>
+        <v>2.4229754275334914</v>
       </c>
       <c r="E9" s="1">
-        <f>Employment_Table!F27</f>
-        <v>0.71208165202942819</v>
+        <f>Employment_Table!F46</f>
+        <v>0.98452883263009383</v>
       </c>
       <c r="H9" s="8"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20">
-        <f>Employment_Table!C22</f>
-        <v>6.3</v>
-      </c>
-      <c r="C10" s="21">
-        <f>Employment_Table!D22</f>
-        <v>0.39999999999999947</v>
-      </c>
-      <c r="D10" s="21">
-        <f>Employment_Table!E22</f>
-        <v>-0.34305317324184736</v>
+      <c r="A10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="28">
+        <f>Employment_Table!C8</f>
+        <v>5.5</v>
+      </c>
+      <c r="C10" s="23">
+        <f>Employment_Table!D8</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D10" s="23">
+        <f>Employment_Table!E8</f>
+        <v>2.4047217746167471</v>
       </c>
       <c r="E10" s="21">
-        <f>Employment_Table!F22</f>
-        <v>-0.76781326781326653</v>
+        <f>Employment_Table!F8</f>
+        <v>2.2110147266491964</v>
       </c>
       <c r="H10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="20">
-        <f>Employment_Table!C38</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="21">
-        <f>Employment_Table!D38</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D11" s="21">
-        <f>Employment_Table!E38</f>
-        <v>-1.8028043623414258</v>
-      </c>
-      <c r="E11" s="21">
-        <f>Employment_Table!F38</f>
-        <v>0.85889570552146743</v>
+      <c r="A11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="28">
+        <f>Employment_Table!C32</f>
+        <v>5.5</v>
+      </c>
+      <c r="C11" s="23">
+        <f>Employment_Table!D32</f>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="23">
+        <f>Employment_Table!E32</f>
+        <v>2.2659323367427264</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Employment_Table!F32</f>
+        <v>1.153846153846172</v>
       </c>
       <c r="H11" s="8"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="20">
-        <f>Employment_Table!C31</f>
-        <v>3.3</v>
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29">
+        <f>Employment_Table!C14</f>
+        <v>5.2</v>
       </c>
       <c r="C12" s="1">
-        <f>Employment_Table!D31</f>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="D12" s="21">
-        <f>Employment_Table!E31</f>
-        <v>0.38522323192413666</v>
-      </c>
-      <c r="E12" s="21">
-        <f>Employment_Table!F31</f>
-        <v>0.58309037900874383</v>
+        <f>Employment_Table!D14</f>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Employment_Table!E14</f>
+        <v>2.2512287860521285</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Employment_Table!F14</f>
+        <v>1.0858400586940542</v>
       </c>
       <c r="H12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
+      <c r="A13" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="20">
-        <f>Employment_Table!C36</f>
-        <v>5.2</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Employment_Table!D36</f>
-        <v>0.29999999999999982</v>
+        <f>Employment_Table!C26</f>
+        <v>4.7</v>
+      </c>
+      <c r="C13" s="21">
+        <f>Employment_Table!D26</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D13" s="1">
-        <f>Employment_Table!E36</f>
-        <v>1.0773656255723463</v>
+        <f>Employment_Table!E26</f>
+        <v>2.2103462016267006</v>
       </c>
       <c r="E13" s="1">
-        <f>Employment_Table!F36</f>
-        <v>0.28381558909040816</v>
+        <f>Employment_Table!F26</f>
+        <v>1.0043521928356114</v>
       </c>
       <c r="H13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20">
-        <f>Employment_Table!C5</f>
-        <v>6.8</v>
-      </c>
-      <c r="C14" s="21">
-        <f>Employment_Table!D5</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D14" s="21">
-        <f>Employment_Table!E5</f>
-        <v>-0.11788977306219639</v>
-      </c>
-      <c r="E14" s="21">
-        <f>Employment_Table!F5</f>
-        <v>3.0674846625766916</v>
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29">
+        <f>Employment_Table!C15</f>
+        <v>3.2</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Employment_Table!D15</f>
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Employment_Table!E15</f>
+        <v>2.1868166198063088</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Employment_Table!F15</f>
+        <v>0.15723270440251014</v>
       </c>
       <c r="H14" s="18"/>
       <c r="J14" s="18"/>
@@ -4522,201 +4522,201 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B15" s="20">
-        <f>Employment_Table!C47</f>
-        <v>4.7</v>
-      </c>
-      <c r="C15" s="1">
-        <f>Employment_Table!D47</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!C16</f>
+        <v>3.8</v>
+      </c>
+      <c r="C15" s="21">
+        <f>Employment_Table!D16</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="D15" s="21">
-        <f>Employment_Table!E47</f>
-        <v>1.7446064336040568</v>
+        <f>Employment_Table!E16</f>
+        <v>2.15985894798707</v>
       </c>
       <c r="E15" s="21">
-        <f>Employment_Table!F47</f>
-        <v>2.4061442612385076</v>
+        <f>Employment_Table!F16</f>
+        <v>0.16542597187758634</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="20">
-        <f>Employment_Table!C39</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C16" s="1">
-        <f>Employment_Table!D39</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D16" s="1">
-        <f>Employment_Table!E39</f>
-        <v>0.92726905492004352</v>
-      </c>
-      <c r="E16" s="1">
-        <f>Employment_Table!F39</f>
-        <v>1.5773693129970123</v>
+        <f>Employment_Table!C33</f>
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="21">
+        <f>Employment_Table!D33</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D16" s="21">
+        <f>Employment_Table!E33</f>
+        <v>2.1221767470062103</v>
+      </c>
+      <c r="E16" s="21">
+        <f>Employment_Table!F33</f>
+        <v>-2.7839643652561197</v>
       </c>
       <c r="H16" s="18"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="20">
-        <f>Employment_Table!C34</f>
-        <v>5.2</v>
+        <f>Employment_Table!C25</f>
+        <v>3.3</v>
       </c>
       <c r="C17" s="21">
-        <f>Employment_Table!D34</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!D25</f>
+        <v>-1.5</v>
       </c>
       <c r="D17" s="21">
-        <f>Employment_Table!E34</f>
-        <v>0.74542133583452852</v>
+        <f>Employment_Table!E25</f>
+        <v>2.036915527914851</v>
       </c>
       <c r="E17" s="21">
-        <f>Employment_Table!F34</f>
-        <v>0</v>
+        <f>Employment_Table!F25</f>
+        <v>1.1529933481152943</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B18" s="20">
-        <f>Employment_Table!C30</f>
-        <v>4.3</v>
+        <f>Employment_Table!C6</f>
+        <v>5.2</v>
       </c>
       <c r="C18" s="21">
-        <f>Employment_Table!D30</f>
-        <v>0.20000000000000018</v>
+        <f>Employment_Table!D6</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="D18" s="21">
-        <f>Employment_Table!E30</f>
-        <v>0.78125</v>
+        <f>Employment_Table!E6</f>
+        <v>1.9889668630615143</v>
       </c>
       <c r="E18" s="21">
-        <f>Employment_Table!F30</f>
-        <v>-0.11086474501109667</v>
+        <f>Employment_Table!F6</f>
+        <v>-4.9091801669121082E-2</v>
       </c>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="20">
-        <f>Employment_Table!C35</f>
-        <v>6.7</v>
-      </c>
-      <c r="C19" s="21">
-        <f>Employment_Table!D35</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="D19" s="21">
-        <f>Employment_Table!E35</f>
-        <v>-0.37521181312031304</v>
-      </c>
-      <c r="E19" s="21">
-        <f>Employment_Table!F35</f>
-        <v>-0.57925223802001158</v>
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="29">
+        <f>Employment_Table!C37</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C19" s="1">
+        <f>Employment_Table!D37</f>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="D19" s="1">
+        <f>Employment_Table!E37</f>
+        <v>1.9884029391741054</v>
+      </c>
+      <c r="E19" s="1">
+        <f>Employment_Table!F37</f>
+        <v>1.0987482614742694</v>
       </c>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="29">
-        <f>Employment_Table!C50</f>
-        <v>4.2</v>
-      </c>
-      <c r="C20" s="33">
-        <f>Employment_Table!D50</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <f>Employment_Table!E50</f>
-        <v>1.7339104446848941</v>
-      </c>
-      <c r="E20" s="1">
-        <f>Employment_Table!F50</f>
-        <v>0.22500351567993349</v>
+      <c r="A20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="28">
+        <f>Employment_Table!C44</f>
+        <v>4.7</v>
+      </c>
+      <c r="C20" s="23">
+        <f>Employment_Table!D44</f>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="D20" s="23">
+        <f>Employment_Table!E44</f>
+        <v>1.9792182088075316</v>
+      </c>
+      <c r="E20" s="21">
+        <f>Employment_Table!F44</f>
+        <v>0.19315673289184154</v>
       </c>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B21" s="20">
-        <f>Employment_Table!C18</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21" s="1">
-        <f>Employment_Table!D18</f>
-        <v>-9.9999999999999645E-2</v>
+        <f>Employment_Table!C11</f>
+        <v>4.3</v>
+      </c>
+      <c r="C21" s="21">
+        <f>Employment_Table!D11</f>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="D21" s="1">
-        <f>Employment_Table!E18</f>
-        <v>0.99097621000818759</v>
+        <f>Employment_Table!E11</f>
+        <v>1.8776231499889606</v>
       </c>
       <c r="E21" s="1">
-        <f>Employment_Table!F18</f>
-        <v>0.77592287796850457</v>
+        <f>Employment_Table!F11</f>
+        <v>-0.30349013657056112</v>
       </c>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>39</v>
+      <c r="A22" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="20">
-        <f>Employment_Table!C43</f>
-        <v>5.5</v>
-      </c>
-      <c r="C22" s="21">
-        <f>Employment_Table!D43</f>
-        <v>-9.9999999999999645E-2</v>
+        <f>Employment_Table!C29</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Employment_Table!D29</f>
+        <v>0.59999999999999964</v>
       </c>
       <c r="D22" s="21">
-        <f>Employment_Table!E43</f>
-        <v>1.3585837793330446</v>
+        <f>Employment_Table!E29</f>
+        <v>1.8259434639116057</v>
       </c>
       <c r="E22" s="1">
-        <f>Employment_Table!F43</f>
-        <v>0.16556291390728006</v>
+        <f>Employment_Table!F29</f>
+        <v>1.1337343822304558</v>
       </c>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="20">
-        <f>Employment_Table!C9</f>
-        <v>3.5</v>
-      </c>
-      <c r="C23" s="21">
-        <f>Employment_Table!D9</f>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="D23" s="21">
-        <f>Employment_Table!E9</f>
-        <v>2.5012681937019776</v>
-      </c>
-      <c r="E23" s="21">
-        <f>Employment_Table!F9</f>
-        <v>1.5007146260124005</v>
+      <c r="A23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="29">
+        <f>Employment_Table!C12</f>
+        <v>6.1</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Employment_Table!D12</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f>Employment_Table!E12</f>
+        <v>1.7968749999999867</v>
+      </c>
+      <c r="E23" s="1">
+        <f>Employment_Table!F12</f>
+        <v>2.1775544388609624</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
@@ -4724,413 +4724,413 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="20">
-        <f>Employment_Table!C48</f>
-        <v>3.2</v>
-      </c>
-      <c r="C24" s="23">
-        <f>Employment_Table!D48</f>
-        <v>-0.19999999999999973</v>
-      </c>
-      <c r="D24" s="23">
-        <f>Employment_Table!E48</f>
-        <v>3.0056805925073649</v>
+        <f>Employment_Table!C47</f>
+        <v>4.7</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Employment_Table!D47</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D24" s="21">
+        <f>Employment_Table!E47</f>
+        <v>1.7446064336040568</v>
       </c>
       <c r="E24" s="21">
-        <f>Employment_Table!F48</f>
-        <v>0.85070182900892632</v>
+        <f>Employment_Table!F47</f>
+        <v>2.4061442612385076</v>
       </c>
       <c r="J24" s="7"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B25" s="29">
-        <f>Employment_Table!C15</f>
-        <v>3.2</v>
-      </c>
-      <c r="C25" s="1">
-        <f>Employment_Table!D15</f>
-        <v>-0.19999999999999973</v>
+        <f>Employment_Table!C50</f>
+        <v>4.2</v>
+      </c>
+      <c r="C25" s="32">
+        <f>Employment_Table!D50</f>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f>Employment_Table!E15</f>
-        <v>2.1868166198063088</v>
+        <f>Employment_Table!E50</f>
+        <v>1.7339104446848941</v>
       </c>
       <c r="E25" s="1">
-        <f>Employment_Table!F15</f>
-        <v>0.15723270440251014</v>
+        <f>Employment_Table!F50</f>
+        <v>0.22500351567993349</v>
       </c>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="20">
-        <f>Employment_Table!C45</f>
-        <v>2.8</v>
+        <f>Employment_Table!C43</f>
+        <v>5.5</v>
       </c>
       <c r="C26" s="21">
-        <f>Employment_Table!D45</f>
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="D26" s="1">
-        <f>Employment_Table!E45</f>
-        <v>2.5204200700116752</v>
+        <f>Employment_Table!D43</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="D26" s="21">
+        <f>Employment_Table!E43</f>
+        <v>1.3585837793330446</v>
       </c>
       <c r="E26" s="1">
-        <f>Employment_Table!F45</f>
-        <v>1.9230769230769162</v>
+        <f>Employment_Table!F43</f>
+        <v>0.16556291390728006</v>
       </c>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="20">
-        <f>Employment_Table!C16</f>
-        <v>3.8</v>
-      </c>
-      <c r="C27" s="21">
-        <f>Employment_Table!D16</f>
-        <v>-0.20000000000000018</v>
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="29">
+        <f>Employment_Table!C24</f>
+        <v>4.2</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Employment_Table!D24</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="D27" s="21">
-        <f>Employment_Table!E16</f>
-        <v>2.15985894798707</v>
+        <f>Employment_Table!E24</f>
+        <v>1.2959850606909296</v>
       </c>
       <c r="E27" s="21">
-        <f>Employment_Table!F16</f>
-        <v>0.16542597187758634</v>
+        <f>Employment_Table!F24</f>
+        <v>1.0133121398768097</v>
       </c>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B28" s="20">
-        <f>Employment_Table!C23</f>
-        <v>4</v>
-      </c>
-      <c r="C28" s="26">
-        <f>Employment_Table!D23</f>
-        <v>-0.20000000000000018</v>
+        <f>Employment_Table!C4</f>
+        <v>5.7</v>
+      </c>
+      <c r="C28" s="21">
+        <f>Employment_Table!D4</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="D28" s="21">
-        <f>Employment_Table!E23</f>
-        <v>-3.2803017877647278E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <f>Employment_Table!F23</f>
-        <v>0.10080645161290036</v>
+        <f>Employment_Table!E4</f>
+        <v>1.1888900276724401</v>
+      </c>
+      <c r="E28" s="21">
+        <f>Employment_Table!F4</f>
+        <v>1.3553016210470226</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="28">
-        <f>Employment_Table!C41</f>
-        <v>5.3</v>
-      </c>
-      <c r="C29" s="23">
-        <f>Employment_Table!D41</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D29" s="23">
-        <f>Employment_Table!E41</f>
-        <v>3.3424321764804255</v>
+      <c r="A29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="20">
+        <f>Employment_Table!C19</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Employment_Table!D19</f>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="D29" s="21">
+        <f>Employment_Table!E19</f>
+        <v>1.1494986908487048</v>
       </c>
       <c r="E29" s="21">
-        <f>Employment_Table!F41</f>
-        <v>3.4733708236850847</v>
+        <f>Employment_Table!F19</f>
+        <v>-0.19554165037153348</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B30" s="20">
-        <f>Employment_Table!C51</f>
-        <v>5.4</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Employment_Table!D51</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D30" s="23">
-        <f>Employment_Table!E51</f>
-        <v>3.4568601499968432</v>
-      </c>
-      <c r="E30" s="21">
-        <f>Employment_Table!F51</f>
-        <v>3.3753775093267047</v>
+        <f>Employment_Table!C27</f>
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Employment_Table!D27</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D30" s="1">
+        <f>Employment_Table!E27</f>
+        <v>1.1219853198182417</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Employment_Table!F27</f>
+        <v>0.71208165202942819</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="29">
-        <f>Employment_Table!C13</f>
-        <v>4.8</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="20">
+        <f>Employment_Table!C36</f>
+        <v>5.2</v>
       </c>
       <c r="C31" s="1">
-        <f>Employment_Table!D13</f>
-        <v>-0.29999999999999982</v>
+        <f>Employment_Table!D36</f>
+        <v>0.29999999999999982</v>
       </c>
       <c r="D31" s="1">
-        <f>Employment_Table!E13</f>
-        <v>3.0960471312978299</v>
+        <f>Employment_Table!E36</f>
+        <v>1.0773656255723463</v>
       </c>
       <c r="E31" s="1">
-        <f>Employment_Table!F13</f>
-        <v>1.4914380408764583</v>
+        <f>Employment_Table!F36</f>
+        <v>0.28381558909040816</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="29">
-        <f>Employment_Table!C14</f>
+      <c r="A32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="20">
+        <f>Employment_Table!C18</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Employment_Table!D18</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <f>Employment_Table!E18</f>
+        <v>0.99097621000818759</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Employment_Table!F18</f>
+        <v>0.77592287796850457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="20">
+        <f>Employment_Table!C53</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C33" s="21">
+        <f>Employment_Table!D53</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D33" s="1">
+        <f>Employment_Table!E53</f>
+        <v>0.97708663042730404</v>
+      </c>
+      <c r="E33" s="1">
+        <f>Employment_Table!F53</f>
+        <v>0.12130033964095066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="20">
+        <f>Employment_Table!C21</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C34" s="21">
+        <f>Employment_Table!D21</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D34" s="21">
+        <f>Employment_Table!E21</f>
+        <v>0.97578986233450848</v>
+      </c>
+      <c r="E34" s="21">
+        <f>Employment_Table!F21</f>
+        <v>-0.78939059046415627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="29">
+        <f>Employment_Table!C7</f>
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <f>Employment_Table!D7</f>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="D35" s="1">
+        <f>Employment_Table!E7</f>
+        <v>0.94293210888816148</v>
+      </c>
+      <c r="E35" s="1">
+        <f>Employment_Table!F7</f>
+        <v>9.3852651337411608E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20">
+        <f>Employment_Table!C39</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Employment_Table!D39</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D36" s="1">
+        <f>Employment_Table!E39</f>
+        <v>0.92726905492004352</v>
+      </c>
+      <c r="E36" s="1">
+        <f>Employment_Table!F39</f>
+        <v>1.5773693129970123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="20">
+        <f>Employment_Table!C30</f>
+        <v>4.3</v>
+      </c>
+      <c r="C37" s="21">
+        <f>Employment_Table!D30</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D37" s="21">
+        <f>Employment_Table!E30</f>
+        <v>0.78125</v>
+      </c>
+      <c r="E37" s="21">
+        <f>Employment_Table!F30</f>
+        <v>-0.11086474501109667</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="20">
+        <f>Employment_Table!C34</f>
         <v>5.2</v>
       </c>
-      <c r="C32" s="1">
-        <f>Employment_Table!D14</f>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D32" s="1">
-        <f>Employment_Table!E14</f>
-        <v>2.2512287860521285</v>
-      </c>
-      <c r="E32" s="1">
-        <f>Employment_Table!F14</f>
-        <v>1.0858400586940542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="C38" s="21">
+        <f>Employment_Table!D34</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D38" s="21">
+        <f>Employment_Table!E34</f>
+        <v>0.74542133583452852</v>
+      </c>
+      <c r="E38" s="21">
+        <f>Employment_Table!F34</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20">
+        <f>Employment_Table!C42</f>
+        <v>5.8</v>
+      </c>
+      <c r="C39" s="1">
+        <f>Employment_Table!D42</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f>Employment_Table!E42</f>
+        <v>0.65506653019447025</v>
+      </c>
+      <c r="E39" s="1">
+        <f>Employment_Table!F42</f>
+        <v>0.43896913055789799</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B40" s="29">
         <f>Employment_Table!C49</f>
         <v>3.3</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C40" s="1">
         <f>Employment_Table!D49</f>
         <v>-0.30000000000000027</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D40" s="1">
         <f>Employment_Table!E49</f>
         <v>0.57397959183671521</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E40" s="1">
         <f>Employment_Table!F49</f>
         <v>0.71301247771835552</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="J40" s="8"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B41" s="20">
         <f>Employment_Table!C17</f>
         <v>5.6</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C41" s="21">
         <f>Employment_Table!D17</f>
         <v>-0.30000000000000071</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D41" s="21">
         <f>Employment_Table!E17</f>
         <v>0.49223273431111547</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E41" s="21">
         <f>Employment_Table!F17</f>
         <v>0.26378896882495173</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="20">
-        <f>Employment_Table!C10</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C35" s="21">
-        <f>Employment_Table!D10</f>
-        <v>-0.30000000000000071</v>
-      </c>
-      <c r="D35" s="21">
-        <f>Employment_Table!E10</f>
-        <v>0.19125029882860467</v>
-      </c>
-      <c r="E35" s="21">
-        <f>Employment_Table!F10</f>
-        <v>-0.75789473684211295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="20">
-        <f>Employment_Table!C4</f>
-        <v>5.7</v>
-      </c>
-      <c r="C36" s="21">
-        <f>Employment_Table!D4</f>
-        <v>-0.39999999999999947</v>
-      </c>
-      <c r="D36" s="21">
-        <f>Employment_Table!E4</f>
-        <v>1.1888900276724401</v>
-      </c>
-      <c r="E36" s="21">
-        <f>Employment_Table!F4</f>
-        <v>1.3553016210470226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="20">
-        <f>Employment_Table!C26</f>
-        <v>4.7</v>
-      </c>
-      <c r="C37" s="21">
-        <f>Employment_Table!D26</f>
-        <v>-0.39999999999999947</v>
-      </c>
-      <c r="D37" s="1">
-        <f>Employment_Table!E26</f>
-        <v>2.2103462016267006</v>
-      </c>
-      <c r="E37" s="1">
-        <f>Employment_Table!F26</f>
-        <v>1.0043521928356114</v>
-      </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="28">
-        <f>Employment_Table!C8</f>
-        <v>5.5</v>
-      </c>
-      <c r="C38" s="23">
-        <f>Employment_Table!D8</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D38" s="23">
-        <f>Employment_Table!E8</f>
-        <v>2.4047217746167471</v>
-      </c>
-      <c r="E38" s="21">
-        <f>Employment_Table!F8</f>
-        <v>2.2110147266491964</v>
-      </c>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="20">
-        <f>Employment_Table!C52</f>
-        <v>6</v>
-      </c>
-      <c r="C39" s="21">
-        <f>Employment_Table!D52</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D39" s="21">
-        <f>Employment_Table!E52</f>
-        <v>2.6274303730944304E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <f>Employment_Table!F52</f>
-        <v>-0.32786885245901232</v>
-      </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="20">
-        <f>Employment_Table!C21</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C40" s="21">
-        <f>Employment_Table!D21</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D40" s="21">
-        <f>Employment_Table!E21</f>
-        <v>0.97578986233450848</v>
-      </c>
-      <c r="E40" s="21">
-        <f>Employment_Table!F21</f>
-        <v>-0.78939059046415627</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="20">
-        <f>Employment_Table!C33</f>
-        <v>2.8</v>
-      </c>
-      <c r="C41" s="21">
-        <f>Employment_Table!D33</f>
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="D41" s="21">
-        <f>Employment_Table!E33</f>
-        <v>2.1221767470062103</v>
-      </c>
-      <c r="E41" s="21">
-        <f>Employment_Table!F33</f>
-        <v>-2.7839643652561197</v>
-      </c>
       <c r="J41" s="18"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="29">
-        <f>Employment_Table!C12</f>
-        <v>6.1</v>
+      <c r="A42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="20">
+        <f>Employment_Table!C31</f>
+        <v>3.3</v>
       </c>
       <c r="C42" s="1">
-        <f>Employment_Table!D12</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D42" s="1">
-        <f>Employment_Table!E12</f>
-        <v>1.7968749999999867</v>
-      </c>
-      <c r="E42" s="1">
-        <f>Employment_Table!F12</f>
-        <v>2.1775544388609624</v>
+        <f>Employment_Table!D31</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D42" s="21">
+        <f>Employment_Table!E31</f>
+        <v>0.38522323192413666</v>
+      </c>
+      <c r="E42" s="21">
+        <f>Employment_Table!F31</f>
+        <v>0.58309037900874383</v>
       </c>
       <c r="H42" s="8"/>
       <c r="J42" s="8"/>
@@ -5138,23 +5138,23 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B43" s="20">
-        <f>Employment_Table!C53</f>
-        <v>4.0999999999999996</v>
+        <f>Employment_Table!C10</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C43" s="21">
-        <f>Employment_Table!D53</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D43" s="1">
-        <f>Employment_Table!E53</f>
-        <v>0.97708663042730404</v>
-      </c>
-      <c r="E43" s="1">
-        <f>Employment_Table!F53</f>
-        <v>0.12130033964095066</v>
+        <f>Employment_Table!D10</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="D43" s="21">
+        <f>Employment_Table!E10</f>
+        <v>0.19125029882860467</v>
+      </c>
+      <c r="E43" s="21">
+        <f>Employment_Table!F10</f>
+        <v>-0.75789473684211295</v>
       </c>
       <c r="H43" s="18"/>
       <c r="J43" s="18"/>
@@ -5162,92 +5162,92 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="20">
+        <f>Employment_Table!C52</f>
+        <v>6</v>
+      </c>
+      <c r="C44" s="21">
+        <f>Employment_Table!D52</f>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="D44" s="21">
+        <f>Employment_Table!E52</f>
+        <v>2.6274303730944304E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <f>Employment_Table!F52</f>
+        <v>-0.32786885245901232</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="20">
+        <f>Employment_Table!C23</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="26">
+        <f>Employment_Table!D23</f>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D45" s="21">
+        <f>Employment_Table!E23</f>
+        <v>-3.2803017877647278E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <f>Employment_Table!F23</f>
+        <v>0.10080645161290036</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B46" s="20">
         <f>Employment_Table!C28</f>
         <v>5.9</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C46" s="21">
         <f>Employment_Table!D28</f>
         <v>-0.59999999999999964</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D46" s="21">
         <f>Employment_Table!E28</f>
         <v>-8.7650100797620478E-2</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E46" s="21">
         <f>Employment_Table!F28</f>
         <v>0.24420024420024333</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="20">
-        <f>Employment_Table!C11</f>
-        <v>4.3</v>
-      </c>
-      <c r="C45" s="21">
-        <f>Employment_Table!D11</f>
-        <v>-0.60000000000000053</v>
-      </c>
-      <c r="D45" s="1">
-        <f>Employment_Table!E11</f>
-        <v>1.8776231499889606</v>
-      </c>
-      <c r="E45" s="1">
-        <f>Employment_Table!F11</f>
-        <v>-0.30349013657056112</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="29">
-        <f>Employment_Table!C37</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C46" s="1">
-        <f>Employment_Table!D37</f>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="D46" s="1">
-        <f>Employment_Table!E37</f>
-        <v>1.9884029391741054</v>
-      </c>
-      <c r="E46" s="1">
-        <f>Employment_Table!F37</f>
-        <v>1.0987482614742694</v>
-      </c>
       <c r="H46" s="18"/>
       <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="20">
-        <f>Employment_Table!C6</f>
-        <v>5.2</v>
+        <f>Employment_Table!C5</f>
+        <v>6.8</v>
       </c>
       <c r="C47" s="21">
-        <f>Employment_Table!D6</f>
-        <v>-0.70000000000000018</v>
+        <f>Employment_Table!D5</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="D47" s="21">
-        <f>Employment_Table!E6</f>
-        <v>1.9889668630615143</v>
+        <f>Employment_Table!E5</f>
+        <v>-0.11788977306219639</v>
       </c>
       <c r="E47" s="21">
-        <f>Employment_Table!F6</f>
-        <v>-4.9091801669121082E-2</v>
+        <f>Employment_Table!F5</f>
+        <v>3.0674846625766916</v>
       </c>
       <c r="H47" s="8"/>
       <c r="J47" s="18"/>
@@ -5256,24 +5256,24 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="29">
-        <f>Employment_Table!C24</f>
-        <v>4.2</v>
-      </c>
-      <c r="C48" s="1">
-        <f>Employment_Table!D24</f>
-        <v>-0.79999999999999982</v>
+      <c r="A48" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="20">
+        <f>Employment_Table!C22</f>
+        <v>6.3</v>
+      </c>
+      <c r="C48" s="21">
+        <f>Employment_Table!D22</f>
+        <v>0.39999999999999947</v>
       </c>
       <c r="D48" s="21">
-        <f>Employment_Table!E24</f>
-        <v>1.2959850606909296</v>
+        <f>Employment_Table!E22</f>
+        <v>-0.34305317324184736</v>
       </c>
       <c r="E48" s="21">
-        <f>Employment_Table!F24</f>
-        <v>1.0133121398768097</v>
+        <f>Employment_Table!F22</f>
+        <v>-0.76781326781326653</v>
       </c>
       <c r="H48" s="8"/>
       <c r="J48" s="18"/>
@@ -5282,24 +5282,24 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="29">
-        <f>Employment_Table!C46</f>
-        <v>4.8</v>
-      </c>
-      <c r="C49" s="1">
-        <f>Employment_Table!D46</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="D49" s="1">
-        <f>Employment_Table!E46</f>
-        <v>2.4229754275334914</v>
-      </c>
-      <c r="E49" s="1">
-        <f>Employment_Table!F46</f>
-        <v>0.98452883263009383</v>
+      <c r="A49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="20">
+        <f>Employment_Table!C35</f>
+        <v>6.7</v>
+      </c>
+      <c r="C49" s="21">
+        <f>Employment_Table!D35</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="D49" s="21">
+        <f>Employment_Table!E35</f>
+        <v>-0.37521181312031304</v>
+      </c>
+      <c r="E49" s="21">
+        <f>Employment_Table!F35</f>
+        <v>-0.57925223802001158</v>
       </c>
       <c r="H49" s="18"/>
       <c r="J49" s="8"/>
@@ -5308,24 +5308,24 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="28">
-        <f>Employment_Table!C44</f>
-        <v>4.7</v>
-      </c>
-      <c r="C50" s="23">
-        <f>Employment_Table!D44</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="D50" s="23">
-        <f>Employment_Table!E44</f>
-        <v>1.9792182088075316</v>
-      </c>
-      <c r="E50" s="21">
-        <f>Employment_Table!F44</f>
-        <v>0.19315673289184154</v>
+      <c r="A50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="20">
+        <f>Employment_Table!C20</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C50" s="21">
+        <f>Employment_Table!D20</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="D50" s="21">
+        <f>Employment_Table!E20</f>
+        <v>-0.37803138373750933</v>
+      </c>
+      <c r="E50" s="1">
+        <f>Employment_Table!F20</f>
+        <v>0.15618898867628683</v>
       </c>
       <c r="H50" s="22"/>
       <c r="J50" s="8"/>
@@ -5334,24 +5334,24 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="29">
-        <f>Employment_Table!C7</f>
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <f>Employment_Table!D7</f>
-        <v>-0.90000000000000036</v>
-      </c>
-      <c r="D51" s="1">
-        <f>Employment_Table!E7</f>
-        <v>0.94293210888816148</v>
-      </c>
-      <c r="E51" s="1">
-        <f>Employment_Table!F7</f>
-        <v>9.3852651337411608E-2</v>
+      <c r="A51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="20">
+        <f>Employment_Table!C40</f>
+        <v>5.2</v>
+      </c>
+      <c r="C51" s="21">
+        <f>Employment_Table!D40</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="21">
+        <f>Employment_Table!E40</f>
+        <v>-0.73727746808127659</v>
+      </c>
+      <c r="E51" s="21">
+        <f>Employment_Table!F40</f>
+        <v>5.6737588652477911E-2</v>
       </c>
       <c r="H51" s="8"/>
       <c r="K51" s="18" t="s">
@@ -5359,24 +5359,24 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="28">
-        <f>Employment_Table!C32</f>
-        <v>5.5</v>
-      </c>
-      <c r="C52" s="23">
-        <f>Employment_Table!D32</f>
-        <v>-1</v>
-      </c>
-      <c r="D52" s="23">
-        <f>Employment_Table!E32</f>
-        <v>2.2659323367427264</v>
-      </c>
-      <c r="E52" s="1">
-        <f>Employment_Table!F32</f>
-        <v>1.153846153846172</v>
+      <c r="A52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="20">
+        <f>Employment_Table!C38</f>
+        <v>3</v>
+      </c>
+      <c r="C52" s="21">
+        <f>Employment_Table!D38</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D52" s="21">
+        <f>Employment_Table!E38</f>
+        <v>-1.8028043623414258</v>
+      </c>
+      <c r="E52" s="21">
+        <f>Employment_Table!F38</f>
+        <v>0.85889570552146743</v>
       </c>
       <c r="K52" s="18" t="s">
         <v>34</v>
@@ -5384,23 +5384,23 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B53" s="20">
-        <f>Employment_Table!C25</f>
-        <v>3.3</v>
+        <f>Employment_Table!C54</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C53" s="21">
-        <f>Employment_Table!D25</f>
-        <v>-1.5</v>
+        <f>Employment_Table!D54</f>
+        <v>0.79999999999999982</v>
       </c>
       <c r="D53" s="21">
-        <f>Employment_Table!E25</f>
-        <v>2.036915527914851</v>
+        <f>Employment_Table!E54</f>
+        <v>-3.5294117647058809</v>
       </c>
       <c r="E53" s="21">
-        <f>Employment_Table!F25</f>
-        <v>1.1529933481152943</v>
+        <f>Employment_Table!F54</f>
+        <v>-0.83682008368202165</v>
       </c>
       <c r="K53" s="18" t="s">
         <v>44</v>
@@ -5450,7 +5450,7 @@
   </sheetData>
   <autoFilter ref="A2:E53">
     <sortState ref="A3:E53">
-      <sortCondition descending="1" ref="C2:C53"/>
+      <sortCondition descending="1" ref="D2:D53"/>
     </sortState>
   </autoFilter>
   <sortState ref="K6:K14">
